--- a/game_excel/item.xlsx
+++ b/game_excel/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="1292">
   <si>
     <t>30级怪物装备组</t>
   </si>
@@ -4093,6 +4093,17 @@
   </si>
   <si>
     <t>itemicon/icon_zhenjin_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,16</t>
+  </si>
+  <si>
+    <t>5,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4493,10 +4504,10 @@
   <dimension ref="A1:T843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD31"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="A6:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6015,7 +6026,9 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>1291</v>
+      </c>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20">
@@ -6064,7 +6077,9 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>1291</v>
+      </c>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20">
@@ -20882,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="S302" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T302" s="2"/>
     </row>
@@ -20939,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="S303" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T303" s="2"/>
     </row>
@@ -20996,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="S304" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T304" s="2"/>
     </row>
@@ -21053,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T305" s="2"/>
     </row>
@@ -21110,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T306" s="2"/>
     </row>
@@ -21167,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T307" s="2"/>
     </row>
@@ -21224,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="S308" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T308" s="2"/>
     </row>
@@ -21281,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="S309" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T309" s="2"/>
     </row>
@@ -21338,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="S310" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T310" s="2"/>
     </row>
@@ -21395,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="S311" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T311" s="2"/>
     </row>
@@ -21452,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="S312" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T312" s="2"/>
     </row>
@@ -21509,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="S313" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T313" s="2"/>
     </row>
@@ -21566,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="S314" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T314" s="2"/>
     </row>
@@ -21623,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="S315" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T315" s="2"/>
     </row>
@@ -21680,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="S316" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T316" s="2"/>
     </row>
@@ -21737,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="S317" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T317" s="2"/>
     </row>
@@ -21794,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="S318" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T318" s="2"/>
     </row>
@@ -21851,7 +21866,7 @@
         <v>0</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T319" s="2"/>
     </row>
@@ -21908,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="S320" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T320" s="2"/>
     </row>
@@ -21965,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="S321" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T321" s="2"/>
     </row>
@@ -22022,7 +22037,7 @@
         <v>0</v>
       </c>
       <c r="S322" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T322" s="2"/>
     </row>
@@ -22079,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="S323" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T323" s="2"/>
     </row>
@@ -22136,7 +22151,7 @@
         <v>0</v>
       </c>
       <c r="S324" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T324" s="2"/>
     </row>
@@ -22193,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="S325" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T325" s="2"/>
     </row>
@@ -22250,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T326" s="2"/>
     </row>
@@ -22307,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="S327" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T327" s="2"/>
     </row>
@@ -22364,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T328" s="2"/>
     </row>
@@ -22421,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T329" s="2"/>
     </row>
@@ -22478,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>715</v>
+        <v>1290</v>
       </c>
       <c r="T330" s="2"/>
     </row>
@@ -22535,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="S331" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T331" s="2"/>
     </row>
@@ -22592,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="S332" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T332" s="2"/>
     </row>
@@ -22649,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="S333" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T333" s="2"/>
     </row>
@@ -22706,7 +22721,7 @@
         <v>0</v>
       </c>
       <c r="S334" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T334" s="2"/>
     </row>
@@ -22763,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T335" s="2"/>
     </row>
@@ -22820,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T336" s="2"/>
     </row>
@@ -22877,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T337" s="2"/>
     </row>
@@ -22934,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="S338" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T338" s="2"/>
     </row>
@@ -22991,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T339" s="2"/>
     </row>
@@ -23048,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="S340" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T340" s="2"/>
     </row>
@@ -23105,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T341" s="2"/>
     </row>
@@ -23162,7 +23177,7 @@
         <v>0</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T342" s="2"/>
     </row>
@@ -23219,7 +23234,7 @@
         <v>0</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T343" s="2"/>
     </row>
@@ -23276,7 +23291,7 @@
         <v>0</v>
       </c>
       <c r="S344" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T344" s="2"/>
     </row>
@@ -23333,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T345" s="2"/>
     </row>
@@ -23390,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T346" s="2"/>
     </row>
@@ -23447,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="S347" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T347" s="2"/>
     </row>
@@ -23504,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T348" s="2"/>
     </row>
@@ -23561,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T349" s="2"/>
     </row>
@@ -23618,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T350" s="2"/>
     </row>
@@ -23675,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T351" s="2"/>
     </row>
@@ -23732,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="S352" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T352" s="2"/>
     </row>
@@ -23789,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="S353" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T353" s="2"/>
     </row>
@@ -23846,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S354" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T354" s="2"/>
     </row>
@@ -23903,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="S355" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T355" s="2"/>
     </row>
@@ -23960,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="S356" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T356" s="2"/>
     </row>
@@ -24017,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="S357" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T357" s="2"/>
     </row>
@@ -24074,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="S358" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T358" s="2"/>
     </row>
@@ -24131,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="S359" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T359" s="2"/>
     </row>
@@ -24188,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="S360" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T360" s="2"/>
     </row>
@@ -24245,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="S361" s="2" t="s">
-        <v>715</v>
+        <v>1289</v>
       </c>
       <c r="T361" s="2"/>
     </row>
